--- a/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72625651951855</v>
+        <v>19.72625651951845</v>
       </c>
       <c r="C3">
-        <v>13.90928822460621</v>
+        <v>13.90928822460587</v>
       </c>
       <c r="D3">
-        <v>9.263080875367855</v>
+        <v>9.263080875367882</v>
       </c>
       <c r="E3">
-        <v>10.80842062291816</v>
+        <v>10.80842062291805</v>
       </c>
       <c r="F3">
-        <v>59.20030580765108</v>
+        <v>59.20030580765093</v>
       </c>
       <c r="G3">
-        <v>2.062708994995518</v>
+        <v>2.062708994995646</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02197260827754</v>
+        <v>17.02197260827744</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69454567058141</v>
+        <v>18.69454567058149</v>
       </c>
       <c r="C4">
-        <v>13.18938070197299</v>
+        <v>13.18938070197288</v>
       </c>
       <c r="D4">
-        <v>8.962465888989538</v>
+        <v>8.962465888989655</v>
       </c>
       <c r="E4">
-        <v>10.38246145179201</v>
+        <v>10.382461451792</v>
       </c>
       <c r="F4">
-        <v>56.68214986690438</v>
+        <v>56.68214986690487</v>
       </c>
       <c r="G4">
         <v>2.07242442948345</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.16379532254429</v>
+        <v>16.16379532254432</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26342615644931</v>
+        <v>18.2634261564493</v>
       </c>
       <c r="C5">
-        <v>12.88894782926777</v>
+        <v>12.88894782926756</v>
       </c>
       <c r="D5">
-        <v>8.83895675365218</v>
+        <v>8.838956753652257</v>
       </c>
       <c r="E5">
-        <v>10.20705654714751</v>
+        <v>10.20705654714745</v>
       </c>
       <c r="F5">
-        <v>55.63936468657671</v>
+        <v>55.63936468657682</v>
       </c>
       <c r="G5">
-        <v>2.076415575023724</v>
+        <v>2.07641557502385</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80517877425238</v>
+        <v>15.80517877425232</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19118270638408</v>
+        <v>18.1911827063839</v>
       </c>
       <c r="C6">
-        <v>12.83862526711105</v>
+        <v>12.83862526711104</v>
       </c>
       <c r="D6">
-        <v>8.818387104055413</v>
+        <v>8.81838710405543</v>
       </c>
       <c r="E6">
-        <v>10.17782189778655</v>
+        <v>10.17782189778644</v>
       </c>
       <c r="F6">
-        <v>55.46520776213249</v>
+        <v>55.46520776213237</v>
       </c>
       <c r="G6">
-        <v>2.077080432663386</v>
+        <v>2.077080432663512</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74508381036289</v>
+        <v>15.74508381036277</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68877521587967</v>
+        <v>18.68877521587962</v>
       </c>
       <c r="C7">
-        <v>13.18535798573331</v>
+        <v>13.18535798573346</v>
       </c>
       <c r="D7">
-        <v>8.960804292231703</v>
+        <v>8.960804292231625</v>
       </c>
       <c r="E7">
         <v>10.38010320969983</v>
       </c>
       <c r="F7">
-        <v>56.6681538032836</v>
+        <v>56.66815380328371</v>
       </c>
       <c r="G7">
-        <v>2.072478116794275</v>
+        <v>2.072478116794533</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.15899536427919</v>
+        <v>16.15899536427913</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79176267189241</v>
+        <v>20.79176267189255</v>
       </c>
       <c r="C8">
-        <v>14.65429147563301</v>
+        <v>14.65429147563307</v>
       </c>
       <c r="D8">
-        <v>9.580498831279204</v>
+        <v>9.580498831279334</v>
       </c>
       <c r="E8">
-        <v>11.25668154145075</v>
+        <v>11.25668154145076</v>
       </c>
       <c r="F8">
-        <v>61.83099696467777</v>
+        <v>61.83099696467805</v>
       </c>
       <c r="G8">
-        <v>2.052430987192917</v>
+        <v>2.05243098719264</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.90824849651494</v>
+        <v>17.90824849651499</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>24.61211857374861</v>
       </c>
       <c r="C9">
-        <v>17.34035209873329</v>
+        <v>17.34035209873309</v>
       </c>
       <c r="D9">
-        <v>10.76804825939603</v>
+        <v>10.76804825939601</v>
       </c>
       <c r="E9">
-        <v>12.92038885134322</v>
+        <v>12.92038885134323</v>
       </c>
       <c r="F9">
-        <v>71.45885870031188</v>
+        <v>71.45885870031175</v>
       </c>
       <c r="G9">
-        <v>2.013516413760463</v>
+        <v>2.013516413760724</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.08626769869407</v>
+        <v>21.08626769869403</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26900405220153</v>
+        <v>27.26900405220146</v>
       </c>
       <c r="C10">
-        <v>19.22467076088159</v>
+        <v>19.22467076088153</v>
       </c>
       <c r="D10">
-        <v>11.63123903361224</v>
+        <v>11.63123903361225</v>
       </c>
       <c r="E10">
-        <v>14.11751468545283</v>
+        <v>14.11751468545274</v>
       </c>
       <c r="F10">
-        <v>78.28526729248433</v>
+        <v>78.28526729248399</v>
       </c>
       <c r="G10">
-        <v>1.984525126913953</v>
+        <v>1.984525126914221</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.29702119183083</v>
+        <v>23.29702119183076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45514290194457</v>
+        <v>28.45514290194473</v>
       </c>
       <c r="C11">
-        <v>20.07093644243841</v>
+        <v>20.07093644243836</v>
       </c>
       <c r="D11">
-        <v>12.0246671851808</v>
+        <v>12.02466718518097</v>
       </c>
       <c r="E11">
-        <v>14.66009960186009</v>
+        <v>14.66009960186021</v>
       </c>
       <c r="F11">
-        <v>81.35712414334006</v>
+        <v>81.357124143341</v>
       </c>
       <c r="G11">
-        <v>1.971064393454601</v>
+        <v>1.971064393454477</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.28420465220425</v>
+        <v>24.28420465220437</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.90213128177427</v>
+        <v>28.90213128177422</v>
       </c>
       <c r="C12">
-        <v>20.390719715321</v>
+        <v>20.39071971532117</v>
       </c>
       <c r="D12">
-        <v>12.17408478406282</v>
+        <v>12.17408478406271</v>
       </c>
       <c r="E12">
-        <v>14.86569747913488</v>
+        <v>14.86569747913486</v>
       </c>
       <c r="F12">
-        <v>82.51787562104055</v>
+        <v>82.51787562103971</v>
       </c>
       <c r="G12">
-        <v>1.965908200568216</v>
+        <v>1.965908200568083</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.65625681001778</v>
+        <v>24.65625681001773</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.80594169395346</v>
+        <v>28.80594169395357</v>
       </c>
       <c r="C13">
-        <v>20.32186244768873</v>
+        <v>20.3218624476886</v>
       </c>
       <c r="D13">
-        <v>12.14187944978248</v>
+        <v>12.14187944978253</v>
       </c>
       <c r="E13">
-        <v>14.82140430555137</v>
+        <v>14.82140430555147</v>
       </c>
       <c r="F13">
-        <v>82.26795380386989</v>
+        <v>82.2679538038702</v>
       </c>
       <c r="G13">
-        <v>1.967021662698816</v>
+        <v>1.967021662698787</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.57619125344101</v>
+        <v>24.57619125344109</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.49195361120802</v>
+        <v>28.491953611208</v>
       </c>
       <c r="C14">
-        <v>20.09725297624313</v>
+        <v>20.0972529762431</v>
       </c>
       <c r="D14">
-        <v>12.03694893216505</v>
+        <v>12.03694893216503</v>
       </c>
       <c r="E14">
-        <v>14.67700873491928</v>
+        <v>14.67700873491929</v>
       </c>
       <c r="F14">
         <v>81.45265418389887</v>
       </c>
       <c r="G14">
-        <v>1.970641500303967</v>
+        <v>1.970641500303986</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.31484333488736</v>
+        <v>24.31484333488734</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29937883378004</v>
+        <v>28.2993788337801</v>
       </c>
       <c r="C15">
-        <v>19.95961466976942</v>
+        <v>19.95961466976939</v>
       </c>
       <c r="D15">
-        <v>11.97274390912577</v>
+        <v>11.97274390912589</v>
       </c>
       <c r="E15">
-        <v>14.58859421999951</v>
+        <v>14.58859421999952</v>
       </c>
       <c r="F15">
-        <v>80.95301496668657</v>
+        <v>80.95301496668689</v>
       </c>
       <c r="G15">
-        <v>1.97285042109298</v>
+        <v>1.972850421093344</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.19111969651211</v>
+        <v>27.19111969651206</v>
       </c>
       <c r="C16">
-        <v>19.16921728508251</v>
+        <v>19.16921728508258</v>
       </c>
       <c r="D16">
-        <v>11.60556857854371</v>
+        <v>11.60556857854374</v>
       </c>
       <c r="E16">
-        <v>14.08204837536278</v>
+        <v>14.08204837536281</v>
       </c>
       <c r="F16">
-        <v>78.08402426203662</v>
+        <v>78.08402426203691</v>
       </c>
       <c r="G16">
-        <v>1.985397748168409</v>
+        <v>1.985397748168659</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.2322056763441</v>
+        <v>23.23220567634413</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50616059360816</v>
+        <v>26.50616059360809</v>
       </c>
       <c r="C17">
-        <v>18.68211146988</v>
+        <v>18.68211146987982</v>
       </c>
       <c r="D17">
-        <v>11.38071600327935</v>
+        <v>11.3807160032793</v>
       </c>
       <c r="E17">
-        <v>13.77104830870248</v>
+        <v>13.77104830870249</v>
       </c>
       <c r="F17">
-        <v>76.31686888951718</v>
+        <v>76.31686888951691</v>
       </c>
       <c r="G17">
-        <v>1.993012642525616</v>
+        <v>1.993012642525495</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.66220659632173</v>
+        <v>22.66220659632171</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10999813888743</v>
+        <v>26.10999813888754</v>
       </c>
       <c r="C18">
-        <v>18.40084984309125</v>
+        <v>18.40084984309137</v>
       </c>
       <c r="D18">
-        <v>11.25143371027395</v>
+        <v>11.25143371027403</v>
       </c>
       <c r="E18">
         <v>13.59194985039079</v>
       </c>
       <c r="F18">
-        <v>75.29712092292048</v>
+        <v>75.29712092292091</v>
       </c>
       <c r="G18">
-        <v>1.997368289148903</v>
+        <v>1.997368289149142</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33255400682721</v>
+        <v>22.33255400682725</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97545926069057</v>
+        <v>25.97545926069061</v>
       </c>
       <c r="C19">
-        <v>18.30540802712951</v>
+        <v>18.3054080271294</v>
       </c>
       <c r="D19">
-        <v>11.20766056647229</v>
+        <v>11.20766056647231</v>
       </c>
       <c r="E19">
-        <v>13.53126171746458</v>
+        <v>13.53126171746461</v>
       </c>
       <c r="F19">
-        <v>74.95121962066013</v>
+        <v>74.9512196206604</v>
       </c>
       <c r="G19">
-        <v>1.998839404743665</v>
+        <v>1.998839404743928</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.22060543820528</v>
+        <v>22.22060543820535</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57929560113297</v>
+        <v>26.57929560113306</v>
       </c>
       <c r="C20">
-        <v>18.73407182381204</v>
+        <v>18.73407182381197</v>
       </c>
       <c r="D20">
-        <v>11.40464501877917</v>
+        <v>11.40464501877916</v>
       </c>
       <c r="E20">
-        <v>13.80417486811519</v>
+        <v>13.80417486811523</v>
       </c>
       <c r="F20">
-        <v>76.50531508910414</v>
+        <v>76.50531508910422</v>
       </c>
       <c r="G20">
-        <v>1.992204661667054</v>
+        <v>1.99220466166708</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.72306488052014</v>
+        <v>22.72306488052019</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5842289691231</v>
+        <v>28.58422896912291</v>
       </c>
       <c r="C21">
-        <v>20.16323652713302</v>
+        <v>20.16323652713287</v>
       </c>
       <c r="D21">
-        <v>12.06775468585973</v>
+        <v>12.06775468585961</v>
       </c>
       <c r="E21">
-        <v>14.71941362018776</v>
+        <v>14.71941362018767</v>
       </c>
       <c r="F21">
-        <v>81.69217332806259</v>
+        <v>81.6921733280621</v>
       </c>
       <c r="G21">
-        <v>1.969580045006997</v>
+        <v>1.969580045006868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.39164759236578</v>
+        <v>24.39164759236564</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.88256138624182</v>
+        <v>29.88256138624197</v>
       </c>
       <c r="C22">
-        <v>21.09389512499069</v>
+        <v>21.09389512499057</v>
       </c>
       <c r="D22">
         <v>12.50389668310713</v>
       </c>
       <c r="E22">
-        <v>15.31864425372245</v>
+        <v>15.31864425372246</v>
       </c>
       <c r="F22">
         <v>85.08911414737941</v>
       </c>
       <c r="G22">
-        <v>1.954437444208927</v>
+        <v>1.9544374442088</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.4723996067286</v>
+        <v>25.47239960672868</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.19029943868944</v>
+        <v>29.19029943868964</v>
       </c>
       <c r="C23">
-        <v>20.59714303792853</v>
+        <v>20.5971430379286</v>
       </c>
       <c r="D23">
-        <v>12.27073243539638</v>
+        <v>12.27073243539643</v>
       </c>
       <c r="E23">
-        <v>14.99855138507616</v>
+        <v>14.9985513850762</v>
       </c>
       <c r="F23">
-        <v>83.26702352876367</v>
+        <v>83.26702352876399</v>
       </c>
       <c r="G23">
-        <v>1.962559710376899</v>
+        <v>1.962559710376642</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.89612621589227</v>
+        <v>24.89612621589238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.54623872387558</v>
+        <v>26.54623872387555</v>
       </c>
       <c r="C24">
-        <v>18.71058440606632</v>
+        <v>18.7105844060664</v>
       </c>
       <c r="D24">
-        <v>11.39382677013126</v>
+        <v>11.39382677013128</v>
       </c>
       <c r="E24">
-        <v>13.78919931611228</v>
+        <v>13.78919931611232</v>
       </c>
       <c r="F24">
-        <v>76.4201305239249</v>
+        <v>76.4201305239252</v>
       </c>
       <c r="G24">
-        <v>1.992570017714124</v>
+        <v>1.992570017714128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69555699615815</v>
+        <v>22.69555699615819</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60785059822441</v>
+        <v>23.60785059822432</v>
       </c>
       <c r="C25">
-        <v>16.63179076032367</v>
+        <v>16.63179076032355</v>
       </c>
       <c r="D25">
-        <v>10.44914293110903</v>
+        <v>10.44914293110911</v>
       </c>
       <c r="E25">
-        <v>12.47561364512101</v>
+        <v>12.475613645121</v>
       </c>
       <c r="F25">
-        <v>68.9029900273547</v>
+        <v>68.90299002735453</v>
       </c>
       <c r="G25">
-        <v>2.024060741508311</v>
+        <v>2.024060741508299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.25077781439184</v>
+        <v>20.25077781439185</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33991755811618</v>
+        <v>20.61043489860243</v>
       </c>
       <c r="C2">
-        <v>15.03820903433637</v>
+        <v>17.35932897820338</v>
       </c>
       <c r="D2">
-        <v>9.746351654170386</v>
+        <v>3.671696181609657</v>
       </c>
       <c r="E2">
-        <v>11.49028611774894</v>
+        <v>11.01514833465371</v>
       </c>
       <c r="F2">
-        <v>63.19495929328388</v>
+        <v>22.68637758625544</v>
       </c>
       <c r="G2">
-        <v>2.047046230920252</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>31.34502551971941</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.393968058118977</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.00128669735081</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.25611420340671</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.36420227590847</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.36256127752318</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72625651951845</v>
+        <v>19.26820167093896</v>
       </c>
       <c r="C3">
-        <v>13.90928822460587</v>
+        <v>16.26263021401782</v>
       </c>
       <c r="D3">
-        <v>9.263080875367882</v>
+        <v>3.641683612485305</v>
       </c>
       <c r="E3">
-        <v>10.80842062291805</v>
+        <v>10.44461421467764</v>
       </c>
       <c r="F3">
-        <v>59.20030580765093</v>
+        <v>21.77156691547069</v>
       </c>
       <c r="G3">
-        <v>2.062708994995646</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>29.87608961631686</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.148476673272603</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.862662429018547</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.2401219815702</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02197260827744</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.15803602373098</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69454567058149</v>
+        <v>18.39604475097441</v>
       </c>
       <c r="C4">
-        <v>13.18938070197288</v>
+        <v>15.55803302589574</v>
       </c>
       <c r="D4">
-        <v>8.962465888989655</v>
+        <v>3.62339690685226</v>
       </c>
       <c r="E4">
-        <v>10.382461451792</v>
+        <v>10.09391829309502</v>
       </c>
       <c r="F4">
-        <v>56.68214986690487</v>
+        <v>21.20746563860082</v>
       </c>
       <c r="G4">
-        <v>2.07242442948345</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>28.96293472001194</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.993969104388438</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.783030818402459</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.2390201861881</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.16379532254432</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.3794858791314</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2634261564493</v>
+        <v>18.02781544458319</v>
       </c>
       <c r="C5">
-        <v>12.88894782926756</v>
+        <v>15.27390612373101</v>
       </c>
       <c r="D5">
-        <v>8.838956753652257</v>
+        <v>3.617545782831273</v>
       </c>
       <c r="E5">
-        <v>10.20705654714745</v>
+        <v>9.949268039973594</v>
       </c>
       <c r="F5">
-        <v>55.63936468657682</v>
+        <v>20.95933853841666</v>
       </c>
       <c r="G5">
-        <v>2.07641557502385</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>28.55578856379077</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.930329485544921</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.745746325157008</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.22784224822982</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80517877425232</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.05372617906197</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1911827063839</v>
+        <v>17.96508244224104</v>
       </c>
       <c r="C6">
-        <v>12.83862526711104</v>
+        <v>15.2395481509836</v>
       </c>
       <c r="D6">
-        <v>8.81838710405543</v>
+        <v>3.618505135278474</v>
       </c>
       <c r="E6">
-        <v>10.17782189778644</v>
+        <v>9.923045585328335</v>
       </c>
       <c r="F6">
-        <v>55.46520776213237</v>
+        <v>20.89617782007687</v>
       </c>
       <c r="G6">
-        <v>2.077080432663512</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>28.44806744899747</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.920263358598553</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.732076844094054</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.21048559504252</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74508381036277</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.00070240750969</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68877521587962</v>
+        <v>18.38884504829857</v>
       </c>
       <c r="C7">
-        <v>13.18535798573346</v>
+        <v>15.58973179623583</v>
       </c>
       <c r="D7">
-        <v>8.960804292231625</v>
+        <v>3.628618838468953</v>
       </c>
       <c r="E7">
-        <v>10.38010320969983</v>
+        <v>10.08604436541756</v>
       </c>
       <c r="F7">
-        <v>56.66815380328371</v>
+        <v>21.14496872631374</v>
       </c>
       <c r="G7">
-        <v>2.072478116794533</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>28.8499503222011</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.994271277125588</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.761967785416811</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.19619589211741</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.15899536427913</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.37956880439156</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.79176267189255</v>
+        <v>20.15477715145898</v>
       </c>
       <c r="C8">
-        <v>14.65429147563307</v>
+        <v>17.03120858221719</v>
       </c>
       <c r="D8">
-        <v>9.580498831279334</v>
+        <v>3.66850471220988</v>
       </c>
       <c r="E8">
-        <v>11.25668154145076</v>
+        <v>10.81130666272071</v>
       </c>
       <c r="F8">
-        <v>61.83099696467805</v>
+        <v>22.29709758380032</v>
       </c>
       <c r="G8">
-        <v>2.05243098719264</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>30.70680365201188</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.31098081668205</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.925615661755675</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.19242845359009</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.90824849651499</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.96069327976818</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.61211857374861</v>
+        <v>23.24282132637292</v>
       </c>
       <c r="C9">
-        <v>17.34035209873309</v>
+        <v>19.55486586580535</v>
       </c>
       <c r="D9">
-        <v>10.76804825939601</v>
+        <v>3.738113339095585</v>
       </c>
       <c r="E9">
-        <v>12.92038885134323</v>
+        <v>12.23436033639532</v>
       </c>
       <c r="F9">
-        <v>71.45885870031175</v>
+        <v>24.62507111012767</v>
       </c>
       <c r="G9">
-        <v>2.013516413760724</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>34.41929530825598</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.903133440694957</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.32735635787111</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.33666575271694</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.08626769869403</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.74828695351957</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26900405220146</v>
+        <v>25.28391261749004</v>
       </c>
       <c r="C10">
-        <v>19.22467076088153</v>
+        <v>21.276378629998</v>
       </c>
       <c r="D10">
-        <v>11.63123903361225</v>
+        <v>3.792951432101949</v>
       </c>
       <c r="E10">
-        <v>14.11751468545274</v>
+        <v>13.45246446508851</v>
       </c>
       <c r="F10">
-        <v>78.28526729248399</v>
+        <v>26.27982769756681</v>
       </c>
       <c r="G10">
-        <v>1.984525126914221</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.01999572084556</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.323969622269579</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.64210124126751</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.47675376302125</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.29702119183076</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22.61690298297378</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45514290194473</v>
+        <v>26.16149301751485</v>
       </c>
       <c r="C11">
-        <v>20.07093644243836</v>
+        <v>22.07070152789074</v>
       </c>
       <c r="D11">
-        <v>12.02466718518097</v>
+        <v>3.827602307942309</v>
       </c>
       <c r="E11">
-        <v>14.66009960186021</v>
+        <v>14.01049889830632</v>
       </c>
       <c r="F11">
-        <v>81.357124143341</v>
+        <v>26.94872986564976</v>
       </c>
       <c r="G11">
-        <v>1.971064393454477</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.05041888220931</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.514201695076863</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.76187549079767</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.4872600560452</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.28420465220437</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23.43409354091905</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.90213128177422</v>
+        <v>26.48848973564327</v>
       </c>
       <c r="C12">
-        <v>20.39071971532117</v>
+        <v>22.34375313321748</v>
       </c>
       <c r="D12">
-        <v>12.17408478406271</v>
+        <v>3.835765306096602</v>
       </c>
       <c r="E12">
-        <v>14.86569747913486</v>
+        <v>14.22284003080413</v>
       </c>
       <c r="F12">
-        <v>82.51787562103971</v>
+        <v>27.24252397578195</v>
       </c>
       <c r="G12">
-        <v>1.965908200568083</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.51140128309189</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.585212828152097</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.82454802055478</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.52937592232664</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.65625681001773</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>23.73538933993725</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.80594169395357</v>
+        <v>26.41866477216151</v>
       </c>
       <c r="C13">
-        <v>20.3218624476886</v>
+        <v>22.28057428540871</v>
       </c>
       <c r="D13">
-        <v>12.14187944978253</v>
+        <v>3.832992359155233</v>
       </c>
       <c r="E13">
-        <v>14.82140430555147</v>
+        <v>14.17787438058358</v>
       </c>
       <c r="F13">
-        <v>82.2679538038702</v>
+        <v>27.18748053752914</v>
       </c>
       <c r="G13">
-        <v>1.967021662698787</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.42663120866076</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.569749019124214</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.81424019976419</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.52738973743631</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.57619125344109</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>23.6701850124027</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.491953611208</v>
+        <v>26.18865869979438</v>
       </c>
       <c r="C14">
-        <v>20.0972529762431</v>
+        <v>22.0912978086588</v>
       </c>
       <c r="D14">
-        <v>12.03694893216503</v>
+        <v>3.827842899674045</v>
       </c>
       <c r="E14">
-        <v>14.67700873491929</v>
+        <v>14.0282993753395</v>
       </c>
       <c r="F14">
-        <v>81.45265418389887</v>
+        <v>26.97642305098302</v>
       </c>
       <c r="G14">
-        <v>1.970641500303986</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.09456017062354</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.519965895903482</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.76839091144317</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.49373768801961</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.31484333488734</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>23.45875164187671</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.2993788337801</v>
+        <v>26.04629365540395</v>
       </c>
       <c r="C15">
-        <v>19.95961466976939</v>
+        <v>21.98392756256952</v>
       </c>
       <c r="D15">
-        <v>11.97274390912589</v>
+        <v>3.826688408806098</v>
       </c>
       <c r="E15">
-        <v>14.58859421999952</v>
+        <v>13.93504422899243</v>
       </c>
       <c r="F15">
-        <v>80.95301496668689</v>
+        <v>26.83065679397942</v>
       </c>
       <c r="G15">
-        <v>1.972850421093344</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>37.86201684007284</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.489873796585328</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.73401974097894</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.45921867521576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.15455905590928</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>23.32965527739092</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.19111969651206</v>
+        <v>25.2205077878567</v>
       </c>
       <c r="C16">
-        <v>19.16921728508258</v>
+        <v>21.30253489943573</v>
       </c>
       <c r="D16">
-        <v>11.60556857854374</v>
+        <v>3.807378086332985</v>
       </c>
       <c r="E16">
-        <v>14.08204837536281</v>
+        <v>13.40412716058334</v>
       </c>
       <c r="F16">
-        <v>78.08402426203691</v>
+        <v>26.09562815836474</v>
       </c>
       <c r="G16">
-        <v>1.985397748168659</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>36.70444716654995</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.314388666542835</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.5797458042119</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.35609418367386</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.23220567634413</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>22.57227537615677</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50616059360809</v>
+        <v>24.70163479867119</v>
       </c>
       <c r="C17">
-        <v>18.68211146987982</v>
+        <v>20.87674984267598</v>
       </c>
       <c r="D17">
-        <v>11.3807160032793</v>
+        <v>3.795512196377658</v>
       </c>
       <c r="E17">
-        <v>13.77104830870249</v>
+        <v>13.07397420969093</v>
       </c>
       <c r="F17">
-        <v>76.31686888951691</v>
+        <v>25.64252768380218</v>
       </c>
       <c r="G17">
-        <v>1.993012642525495</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>35.9890243201249</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.206298165412359</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.48697120673551</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.29694529043957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.66220659632171</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>22.09803918486144</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10999813888754</v>
+        <v>24.40022904046466</v>
       </c>
       <c r="C18">
-        <v>18.40084984309137</v>
+        <v>20.60438538834481</v>
       </c>
       <c r="D18">
-        <v>11.25143371027403</v>
+        <v>3.783612168137584</v>
       </c>
       <c r="E18">
-        <v>13.59194985039079</v>
+        <v>12.88602342770575</v>
       </c>
       <c r="F18">
-        <v>75.29712092292091</v>
+        <v>25.42476176260003</v>
       </c>
       <c r="G18">
-        <v>1.997368289149142</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>35.65288343490435</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.142340984392463</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.45105758540135</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.30095659873842</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33255400682725</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>21.81870943806343</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97545926069061</v>
+        <v>24.29618105345019</v>
       </c>
       <c r="C19">
-        <v>18.3054080271294</v>
+        <v>20.53058402344504</v>
       </c>
       <c r="D19">
-        <v>11.20766056647231</v>
+        <v>3.783487948875966</v>
       </c>
       <c r="E19">
-        <v>13.53126171746461</v>
+        <v>12.81930492121856</v>
       </c>
       <c r="F19">
-        <v>74.9512196206604</v>
+        <v>25.31732733567403</v>
       </c>
       <c r="G19">
-        <v>1.998839404743928</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>35.4792850463557</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.121830738991076</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.42609187100287</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.27436097037813</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.22060543820535</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>21.72581729947247</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57929560113306</v>
+        <v>24.75746152079165</v>
       </c>
       <c r="C20">
-        <v>18.73407182381197</v>
+        <v>20.92046705325486</v>
       </c>
       <c r="D20">
-        <v>11.40464501877916</v>
+        <v>3.796377239772276</v>
       </c>
       <c r="E20">
-        <v>13.80417486811523</v>
+        <v>13.10957285346467</v>
       </c>
       <c r="F20">
-        <v>76.50531508910422</v>
+        <v>25.69422934138649</v>
       </c>
       <c r="G20">
-        <v>1.99220466166708</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.07137533429237</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.217693576336274</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.49808601191586</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.30595266374071</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.72306488052019</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>22.14865949566875</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.58422896912291</v>
+        <v>26.25473329327473</v>
       </c>
       <c r="C21">
-        <v>20.16323652713287</v>
+        <v>22.17271645199353</v>
       </c>
       <c r="D21">
-        <v>12.06775468585961</v>
+        <v>3.835048001379181</v>
       </c>
       <c r="E21">
-        <v>14.71941362018767</v>
+        <v>14.06856721368409</v>
       </c>
       <c r="F21">
-        <v>81.6921733280621</v>
+        <v>26.99244382086302</v>
       </c>
       <c r="G21">
-        <v>1.969580045006868</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.11119961799144</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.535836841220414</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.76365285890414</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.46324772104532</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.39164759236564</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.52409641696645</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.88256138624197</v>
+        <v>27.19558201558468</v>
       </c>
       <c r="C22">
-        <v>21.09389512499057</v>
+        <v>22.9334418879504</v>
       </c>
       <c r="D22">
-        <v>12.50389668310713</v>
+        <v>3.853026030701181</v>
       </c>
       <c r="E22">
-        <v>15.31864425372246</v>
+        <v>14.68609350919931</v>
       </c>
       <c r="F22">
-        <v>85.08911414737941</v>
+        <v>27.8918249300153</v>
       </c>
       <c r="G22">
-        <v>1.9544374442088</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.52954620839121</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.74085157904112</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.96648906727905</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.63127514687184</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.47239960672868</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>24.38816680463665</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.19029943868964</v>
+        <v>26.69904362376879</v>
       </c>
       <c r="C23">
-        <v>20.5971430379286</v>
+        <v>22.49901457241033</v>
       </c>
       <c r="D23">
-        <v>12.27073243539643</v>
+        <v>3.836582322850346</v>
       </c>
       <c r="E23">
-        <v>14.9985513850762</v>
+        <v>14.36217422256496</v>
       </c>
       <c r="F23">
-        <v>83.26702352876399</v>
+        <v>27.4674760201266</v>
       </c>
       <c r="G23">
-        <v>1.962559710376642</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.87081941985364</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.63034195764216</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.87946082426331</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.58875185209575</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.89612621589238</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.92609057617724</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.54623872387555</v>
+        <v>24.73554687846078</v>
       </c>
       <c r="C24">
-        <v>18.7105844060664</v>
+        <v>20.84931211561282</v>
       </c>
       <c r="D24">
-        <v>11.39382677013128</v>
+        <v>3.785283834201045</v>
       </c>
       <c r="E24">
-        <v>13.78919931611232</v>
+        <v>13.10104675611593</v>
       </c>
       <c r="F24">
-        <v>76.4201305239252</v>
+        <v>25.7622504039785</v>
       </c>
       <c r="G24">
-        <v>1.992570017714128</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>36.19586091759023</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.209910373854846</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.52837935259955</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.37917502677508</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69555699615819</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>22.1195417892115</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60785059822432</v>
+        <v>22.4441076116642</v>
       </c>
       <c r="C25">
-        <v>16.63179076032355</v>
+        <v>18.95217836999506</v>
       </c>
       <c r="D25">
-        <v>10.44914293110911</v>
+        <v>3.729287220239816</v>
       </c>
       <c r="E25">
-        <v>12.475613645121</v>
+        <v>11.84197574515125</v>
       </c>
       <c r="F25">
-        <v>68.90299002735453</v>
+        <v>23.90522580502353</v>
       </c>
       <c r="G25">
-        <v>2.024060741508299</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.25953056252627</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.747351472432978</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.17827325002052</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.21253048228412</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.25077781439185</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>20.03303421318632</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61043489860243</v>
+        <v>20.55475864940266</v>
       </c>
       <c r="C2">
-        <v>17.35932897820338</v>
+        <v>18.0146946972544</v>
       </c>
       <c r="D2">
-        <v>3.671696181609657</v>
+        <v>3.845257579685969</v>
       </c>
       <c r="E2">
-        <v>11.01514833465371</v>
+        <v>10.87017245444444</v>
       </c>
       <c r="F2">
-        <v>22.68637758625544</v>
+        <v>21.41256531149366</v>
       </c>
       <c r="G2">
-        <v>31.34502551971941</v>
+        <v>28.51765141723795</v>
       </c>
       <c r="I2">
-        <v>3.393968058118977</v>
+        <v>3.347091730711068</v>
       </c>
       <c r="J2">
-        <v>10.00128669735081</v>
+        <v>10.15943703065567</v>
       </c>
       <c r="K2">
-        <v>14.25611420340671</v>
+        <v>13.29450041232151</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.09050821208216</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.739326267735065</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.36256127752318</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.43603502935589</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26820167093896</v>
+        <v>19.2371981593863</v>
       </c>
       <c r="C3">
-        <v>16.26263021401782</v>
+        <v>16.80649437427005</v>
       </c>
       <c r="D3">
-        <v>3.641683612485305</v>
+        <v>3.770609265463142</v>
       </c>
       <c r="E3">
-        <v>10.44461421467764</v>
+        <v>10.32038962851598</v>
       </c>
       <c r="F3">
-        <v>21.77156691547069</v>
+        <v>20.67317001574497</v>
       </c>
       <c r="G3">
-        <v>29.87608961631686</v>
+        <v>27.33029830530117</v>
       </c>
       <c r="I3">
-        <v>3.148476673272603</v>
+        <v>3.136466780346646</v>
       </c>
       <c r="J3">
-        <v>9.862662429018547</v>
+        <v>10.04976478301071</v>
       </c>
       <c r="K3">
-        <v>14.2401219815702</v>
+        <v>13.39889688704649</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.26018874493989</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.678945204431417</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.15803602373098</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.22796838959786</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.39604475097441</v>
+        <v>18.38089260466871</v>
       </c>
       <c r="C4">
-        <v>15.55803302589574</v>
+        <v>16.02841211319272</v>
       </c>
       <c r="D4">
-        <v>3.62339690685226</v>
+        <v>3.724712197572491</v>
       </c>
       <c r="E4">
-        <v>10.09391829309502</v>
+        <v>9.983655455441545</v>
       </c>
       <c r="F4">
-        <v>21.20746563860082</v>
+        <v>20.21804530995098</v>
       </c>
       <c r="G4">
-        <v>28.96293472001194</v>
+        <v>26.59941912292697</v>
       </c>
       <c r="I4">
-        <v>2.993969104388438</v>
+        <v>3.003946335945173</v>
       </c>
       <c r="J4">
-        <v>9.783030818402459</v>
+        <v>9.983617751309547</v>
       </c>
       <c r="K4">
-        <v>14.2390201861881</v>
+        <v>13.46874371479277</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.36383691380799</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.673178075487813</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.3794858791314</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.44646509943246</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02781544458319</v>
+        <v>18.01938240573431</v>
       </c>
       <c r="C5">
-        <v>15.27390612373101</v>
+        <v>15.71247280925985</v>
       </c>
       <c r="D5">
-        <v>3.617545782831273</v>
+        <v>3.707720774768729</v>
       </c>
       <c r="E5">
-        <v>9.949268039973594</v>
+        <v>9.845161595885253</v>
       </c>
       <c r="F5">
-        <v>20.95933853841666</v>
+        <v>20.01626028663994</v>
       </c>
       <c r="G5">
-        <v>28.55578856379077</v>
+        <v>26.27143617761197</v>
       </c>
       <c r="I5">
-        <v>2.930329485544921</v>
+        <v>2.949706645506656</v>
       </c>
       <c r="J5">
-        <v>9.745746325157008</v>
+        <v>9.951595978024699</v>
       </c>
       <c r="K5">
-        <v>14.22784224822982</v>
+        <v>13.48768193451994</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.39701595198286</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.671004283754752</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.05372617906197</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.11921490852997</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.96508244224104</v>
+        <v>17.95784680686909</v>
       </c>
       <c r="C6">
-        <v>15.2395481509836</v>
+        <v>15.67201085150077</v>
       </c>
       <c r="D6">
-        <v>3.618505135278474</v>
+        <v>3.707009247783536</v>
       </c>
       <c r="E6">
-        <v>9.923045585328335</v>
+        <v>9.820176508256649</v>
       </c>
       <c r="F6">
-        <v>20.89617782007687</v>
+        <v>19.96292905384136</v>
       </c>
       <c r="G6">
-        <v>28.44806744899747</v>
+        <v>26.18032370365254</v>
       </c>
       <c r="I6">
-        <v>2.920263358598553</v>
+        <v>2.941598806630465</v>
       </c>
       <c r="J6">
-        <v>9.732076844094054</v>
+        <v>9.939747525400227</v>
       </c>
       <c r="K6">
-        <v>14.21048559504252</v>
+        <v>13.47765189619673</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.39162224734958</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.661889030969323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.00070240750969</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.06580454929891</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.38884504829857</v>
+        <v>18.37385324799365</v>
       </c>
       <c r="C7">
-        <v>15.58973179623583</v>
+        <v>16.04722202123593</v>
       </c>
       <c r="D7">
-        <v>3.628618838468953</v>
+        <v>3.734037947201456</v>
       </c>
       <c r="E7">
-        <v>10.08604436541756</v>
+        <v>9.97754368328407</v>
       </c>
       <c r="F7">
-        <v>21.14496872631374</v>
+        <v>20.12989577036691</v>
       </c>
       <c r="G7">
-        <v>28.8499503222011</v>
+        <v>26.57020351030381</v>
       </c>
       <c r="I7">
-        <v>2.994271277125588</v>
+        <v>3.004608570868509</v>
       </c>
       <c r="J7">
-        <v>9.761967785416811</v>
+        <v>9.907909418334121</v>
       </c>
       <c r="K7">
-        <v>14.19619589211741</v>
+        <v>13.41743991969933</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.32262977686107</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.636096765692882</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.37956880439156</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.44452035664231</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.15477715145898</v>
+        <v>20.10738371238459</v>
       </c>
       <c r="C8">
-        <v>17.03120858221719</v>
+        <v>17.61450809234569</v>
       </c>
       <c r="D8">
-        <v>3.66850471220988</v>
+        <v>3.840100973703645</v>
       </c>
       <c r="E8">
-        <v>10.81130666272071</v>
+        <v>10.67759420725965</v>
       </c>
       <c r="F8">
-        <v>22.29709758380032</v>
+        <v>20.98915267741826</v>
       </c>
       <c r="G8">
-        <v>30.70680365201188</v>
+        <v>28.21909669651151</v>
       </c>
       <c r="I8">
-        <v>3.31098081668205</v>
+        <v>3.274874934521081</v>
       </c>
       <c r="J8">
-        <v>9.925615661755675</v>
+        <v>9.911235362224154</v>
       </c>
       <c r="K8">
-        <v>14.19242845359009</v>
+        <v>13.23110723103521</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.07486755505214</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.634422645521798</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.96069327976818</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.02755230389224</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.24282132637292</v>
+        <v>23.13643523838438</v>
       </c>
       <c r="C9">
-        <v>19.55486586580535</v>
+        <v>20.3865158092049</v>
       </c>
       <c r="D9">
-        <v>3.738113339095585</v>
+        <v>4.022423260088384</v>
       </c>
       <c r="E9">
-        <v>12.23436033639532</v>
+        <v>12.05551233092806</v>
       </c>
       <c r="F9">
-        <v>24.62507111012767</v>
+        <v>22.86669930771728</v>
       </c>
       <c r="G9">
-        <v>34.41929530825598</v>
+        <v>31.31502808922639</v>
       </c>
       <c r="I9">
-        <v>3.903133440694957</v>
+        <v>3.781319442417816</v>
       </c>
       <c r="J9">
-        <v>10.32735635787111</v>
+        <v>10.16732926462408</v>
       </c>
       <c r="K9">
-        <v>14.33666575271694</v>
+        <v>13.03696330761489</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.67695955069828</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.976536134089953</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.74828695351957</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.81869669450815</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.28391261749004</v>
+        <v>25.13515093215917</v>
       </c>
       <c r="C10">
-        <v>21.276378629998</v>
+        <v>22.21836263349562</v>
       </c>
       <c r="D10">
-        <v>3.792951432101949</v>
+        <v>4.181016366750184</v>
       </c>
       <c r="E10">
-        <v>13.45246446508851</v>
+        <v>13.29922374579485</v>
       </c>
       <c r="F10">
-        <v>26.27982769756681</v>
+        <v>24.05258716243362</v>
       </c>
       <c r="G10">
-        <v>37.01999572084556</v>
+        <v>33.87181111471706</v>
       </c>
       <c r="I10">
-        <v>4.323969622269579</v>
+        <v>4.138105906834133</v>
       </c>
       <c r="J10">
-        <v>10.64210124126751</v>
+        <v>10.04450186545253</v>
       </c>
       <c r="K10">
-        <v>14.47675376302125</v>
+        <v>12.82960190998717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.31365531739218</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.287060974841946</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.61690298297378</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.67710157339204</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.16149301751485</v>
+        <v>25.99305747612841</v>
       </c>
       <c r="C11">
-        <v>22.07070152789074</v>
+        <v>22.97642659367028</v>
       </c>
       <c r="D11">
-        <v>3.827602307942309</v>
+        <v>4.304317250635394</v>
       </c>
       <c r="E11">
-        <v>14.01049889830632</v>
+        <v>13.86177708831122</v>
       </c>
       <c r="F11">
-        <v>26.94872986564976</v>
+        <v>24.25501829693492</v>
       </c>
       <c r="G11">
-        <v>38.05041888220931</v>
+        <v>35.50360305860826</v>
       </c>
       <c r="I11">
-        <v>4.514201695076863</v>
+        <v>4.295430118878196</v>
       </c>
       <c r="J11">
-        <v>10.76187549079767</v>
+        <v>9.437379293450926</v>
       </c>
       <c r="K11">
-        <v>14.4872600560452</v>
+        <v>12.53654566137153</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.01894655664147</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.272968244123897</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.43409354091905</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>23.47511301779775</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.48848973564327</v>
+        <v>26.31239514453804</v>
       </c>
       <c r="C12">
-        <v>22.34375313321748</v>
+        <v>23.22768606939272</v>
       </c>
       <c r="D12">
-        <v>3.835765306096602</v>
+        <v>4.351017908184653</v>
       </c>
       <c r="E12">
-        <v>14.22284003080413</v>
+        <v>14.07661881427664</v>
       </c>
       <c r="F12">
-        <v>27.24252397578195</v>
+        <v>24.33812095378282</v>
       </c>
       <c r="G12">
-        <v>38.51140128309189</v>
+        <v>36.25582147061927</v>
       </c>
       <c r="I12">
-        <v>4.585212828152097</v>
+        <v>4.35255472565405</v>
       </c>
       <c r="J12">
-        <v>10.82454802055478</v>
+        <v>9.161840771484801</v>
       </c>
       <c r="K12">
-        <v>14.52937592232664</v>
+        <v>12.4378804017881</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.91587186504006</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.281036770744251</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.73538933993725</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>23.76771734573747</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.41866477216151</v>
+        <v>26.24418703104051</v>
       </c>
       <c r="C13">
-        <v>22.28057428540871</v>
+        <v>23.16990619168359</v>
       </c>
       <c r="D13">
-        <v>3.832992359155233</v>
+        <v>4.339583643202218</v>
       </c>
       <c r="E13">
-        <v>14.17787438058358</v>
+        <v>14.03100240304735</v>
       </c>
       <c r="F13">
-        <v>27.18748053752914</v>
+        <v>24.32900647043391</v>
       </c>
       <c r="G13">
-        <v>38.42663120866076</v>
+        <v>36.10391392602773</v>
       </c>
       <c r="I13">
-        <v>4.569749019124214</v>
+        <v>4.339907865240405</v>
       </c>
       <c r="J13">
-        <v>10.81424019976419</v>
+        <v>9.226252095743103</v>
       </c>
       <c r="K13">
-        <v>14.52738973743631</v>
+        <v>12.46586401481493</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.94220382943389</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.28516426394569</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.6701850124027</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>23.70449538013424</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.18865869979438</v>
+        <v>26.01957935907518</v>
       </c>
       <c r="C14">
-        <v>22.0912978086588</v>
+        <v>22.99554137874187</v>
       </c>
       <c r="D14">
-        <v>3.827842899674045</v>
+        <v>4.307571604760161</v>
       </c>
       <c r="E14">
-        <v>14.0282993753395</v>
+        <v>13.8797340561288</v>
       </c>
       <c r="F14">
-        <v>26.97642305098302</v>
+        <v>24.26564498593297</v>
       </c>
       <c r="G14">
-        <v>38.09456017062354</v>
+        <v>35.56974509778257</v>
       </c>
       <c r="I14">
-        <v>4.519965895903482</v>
+        <v>4.299977622572962</v>
       </c>
       <c r="J14">
-        <v>10.76839091144317</v>
+        <v>9.416958428874983</v>
       </c>
       <c r="K14">
-        <v>14.49373768801961</v>
+        <v>12.53131798115905</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.01225293017729</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.276143479996012</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.45875164187671</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>23.49910517666699</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.04629365540395</v>
+        <v>25.88058259912405</v>
       </c>
       <c r="C15">
-        <v>21.98392756256952</v>
+        <v>22.89550610856995</v>
       </c>
       <c r="D15">
-        <v>3.826688408806098</v>
+        <v>4.290883034675653</v>
       </c>
       <c r="E15">
-        <v>13.93504422899243</v>
+        <v>13.78571219246279</v>
       </c>
       <c r="F15">
-        <v>26.83065679397942</v>
+        <v>24.20799634476682</v>
       </c>
       <c r="G15">
-        <v>37.86201684007284</v>
+        <v>35.22512024853566</v>
       </c>
       <c r="I15">
-        <v>4.489873796585328</v>
+        <v>4.276257434849973</v>
       </c>
       <c r="J15">
-        <v>10.73401974097894</v>
+        <v>9.521078155768974</v>
       </c>
       <c r="K15">
-        <v>14.45921867521576</v>
+        <v>12.55731611789945</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.04641021270491</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.258463227727972</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.32965527739092</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>23.37342102243356</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.2205077878567</v>
+        <v>25.0735713302811</v>
       </c>
       <c r="C16">
-        <v>21.30253489943573</v>
+        <v>22.24070267775736</v>
       </c>
       <c r="D16">
-        <v>3.807378086332985</v>
+        <v>4.191827295637498</v>
       </c>
       <c r="E16">
-        <v>13.40412716058334</v>
+        <v>13.25184987593735</v>
       </c>
       <c r="F16">
-        <v>26.09562815836474</v>
+        <v>23.90808549779482</v>
       </c>
       <c r="G16">
-        <v>36.70444716654995</v>
+        <v>33.54901454578966</v>
       </c>
       <c r="I16">
-        <v>4.314388666542835</v>
+        <v>4.133723494557788</v>
       </c>
       <c r="J16">
-        <v>10.5797458042119</v>
+        <v>10.03055910845058</v>
       </c>
       <c r="K16">
-        <v>14.35609418367386</v>
+        <v>12.74610177432064</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.26712305391861</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.197847893214178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.57227537615677</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>22.6328097982376</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.70163479867119</v>
+        <v>24.56608624322704</v>
       </c>
       <c r="C17">
-        <v>20.87674984267598</v>
+        <v>21.81399784876593</v>
       </c>
       <c r="D17">
-        <v>3.795512196377658</v>
+        <v>4.139986258038086</v>
       </c>
       <c r="E17">
-        <v>13.07397420969093</v>
+        <v>12.9219640033205</v>
       </c>
       <c r="F17">
-        <v>25.64252768380218</v>
+        <v>23.66842984823764</v>
       </c>
       <c r="G17">
-        <v>35.9890243201249</v>
+        <v>32.64101414647118</v>
       </c>
       <c r="I17">
-        <v>4.206298165412359</v>
+        <v>4.044817795437386</v>
       </c>
       <c r="J17">
-        <v>10.48697120673551</v>
+        <v>10.23424635886133</v>
       </c>
       <c r="K17">
-        <v>14.29694529043957</v>
+        <v>12.83193434307721</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.38317030600713</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.139082700819134</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.09803918486144</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>22.16590124161202</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.40022904046466</v>
+        <v>24.27101073167178</v>
       </c>
       <c r="C18">
-        <v>20.60438538834481</v>
+        <v>21.53619723211228</v>
       </c>
       <c r="D18">
-        <v>3.783612168137584</v>
+        <v>4.107814675134343</v>
       </c>
       <c r="E18">
-        <v>12.88602342770575</v>
+        <v>12.73461060906603</v>
       </c>
       <c r="F18">
-        <v>25.42476176260003</v>
+        <v>23.54967595282969</v>
       </c>
       <c r="G18">
-        <v>35.65288343490435</v>
+        <v>32.23342475387162</v>
       </c>
       <c r="I18">
-        <v>4.142340984392463</v>
+        <v>3.990376151850749</v>
       </c>
       <c r="J18">
-        <v>10.45105758540135</v>
+        <v>10.32523600507247</v>
       </c>
       <c r="K18">
-        <v>14.30095659873842</v>
+        <v>12.90126924802054</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.46282484373357</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.124659553070051</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.81870943806343</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>21.88990924914849</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.29618105345019</v>
+        <v>24.16922295663695</v>
       </c>
       <c r="C19">
-        <v>20.53058402344504</v>
+        <v>21.45830027387104</v>
       </c>
       <c r="D19">
-        <v>3.783487948875966</v>
+        <v>4.101629287943351</v>
       </c>
       <c r="E19">
-        <v>12.81930492121856</v>
+        <v>12.66849446274085</v>
       </c>
       <c r="F19">
-        <v>25.31732733567403</v>
+        <v>23.4756229042392</v>
       </c>
       <c r="G19">
-        <v>35.4792850463557</v>
+        <v>32.04882278261694</v>
       </c>
       <c r="I19">
-        <v>4.121830738991076</v>
+        <v>3.973863111027947</v>
       </c>
       <c r="J19">
-        <v>10.42609187100287</v>
+        <v>10.33825636009768</v>
       </c>
       <c r="K19">
-        <v>14.27436097037813</v>
+        <v>12.89937968679751</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.47308831989473</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.097866767702207</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.72581729947247</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>21.79779180123233</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.75746152079165</v>
+        <v>24.62069343668694</v>
       </c>
       <c r="C20">
-        <v>20.92046705325486</v>
+        <v>21.85859089421369</v>
       </c>
       <c r="D20">
-        <v>3.796377239772276</v>
+        <v>4.144751982028322</v>
       </c>
       <c r="E20">
-        <v>13.10957285346467</v>
+        <v>12.95742687827686</v>
       </c>
       <c r="F20">
-        <v>25.69422934138649</v>
+        <v>23.6991153927847</v>
       </c>
       <c r="G20">
-        <v>36.07137533429237</v>
+        <v>32.73855332770891</v>
       </c>
       <c r="I20">
-        <v>4.217693576336274</v>
+        <v>4.054123454502177</v>
       </c>
       <c r="J20">
-        <v>10.49808601191586</v>
+        <v>10.21783390391183</v>
       </c>
       <c r="K20">
-        <v>14.30595266374071</v>
+        <v>12.82629713477299</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.37311485446747</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.148223988840234</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.14865949566875</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>22.21587153604176</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.25473329327473</v>
+        <v>26.08404361098464</v>
       </c>
       <c r="C21">
-        <v>22.17271645199353</v>
+        <v>23.04302355103715</v>
       </c>
       <c r="D21">
-        <v>3.835048001379181</v>
+        <v>4.33787121945269</v>
       </c>
       <c r="E21">
-        <v>14.06856721368409</v>
+        <v>13.92444493284382</v>
       </c>
       <c r="F21">
-        <v>26.99244382086302</v>
+        <v>24.14838937551264</v>
       </c>
       <c r="G21">
-        <v>38.11119961799144</v>
+        <v>35.86668053542733</v>
       </c>
       <c r="I21">
-        <v>4.535836841220414</v>
+        <v>4.312126742554329</v>
       </c>
       <c r="J21">
-        <v>10.76365285890414</v>
+        <v>9.164946102733547</v>
       </c>
       <c r="K21">
-        <v>14.46324772104532</v>
+        <v>12.4251204786405</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.93764921898074</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.201315120378954</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.52409641696645</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.55791515366461</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.19558201558468</v>
+        <v>27.0026115963283</v>
       </c>
       <c r="C22">
-        <v>22.9334418879504</v>
+        <v>23.75296073208263</v>
       </c>
       <c r="D22">
-        <v>3.853026030701181</v>
+        <v>4.463333386468192</v>
       </c>
       <c r="E22">
-        <v>14.68609350919931</v>
+        <v>14.54724201671564</v>
       </c>
       <c r="F22">
-        <v>27.8918249300153</v>
+        <v>24.4696434143425</v>
       </c>
       <c r="G22">
-        <v>39.52954620839121</v>
+        <v>38.03846368242291</v>
       </c>
       <c r="I22">
-        <v>4.74085157904112</v>
+        <v>4.476760483653593</v>
       </c>
       <c r="J22">
-        <v>10.96648906727905</v>
+        <v>8.459186777307895</v>
       </c>
       <c r="K22">
-        <v>14.63127514687184</v>
+        <v>12.19235970593047</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.67316858882115</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.278207356482682</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.38816680463665</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>24.39855245593744</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.69904362376879</v>
+        <v>26.51784965090577</v>
       </c>
       <c r="C23">
-        <v>22.49901457241033</v>
+        <v>23.36755568537717</v>
       </c>
       <c r="D23">
-        <v>3.836582322850346</v>
+        <v>4.377769525814372</v>
       </c>
       <c r="E23">
-        <v>14.36217422256496</v>
+        <v>14.21758740079837</v>
       </c>
       <c r="F23">
-        <v>27.4674760201266</v>
+        <v>24.41531700277034</v>
       </c>
       <c r="G23">
-        <v>38.87081941985364</v>
+        <v>36.81683091237038</v>
       </c>
       <c r="I23">
-        <v>4.63034195764216</v>
+        <v>4.387769908410904</v>
       </c>
       <c r="J23">
-        <v>10.87946082426331</v>
+        <v>8.979250384124224</v>
       </c>
       <c r="K23">
-        <v>14.58875185209575</v>
+        <v>12.39517194858194</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.86234909547383</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.305658783404969</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.92609057617724</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.95253188380037</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.73554687846078</v>
+        <v>24.59898146212863</v>
       </c>
       <c r="C24">
-        <v>20.84931211561282</v>
+        <v>21.79019573903832</v>
       </c>
       <c r="D24">
-        <v>3.785283834201045</v>
+        <v>4.131050759570034</v>
       </c>
       <c r="E24">
-        <v>13.10104675611593</v>
+        <v>12.9482438810827</v>
       </c>
       <c r="F24">
-        <v>25.7622504039785</v>
+        <v>23.767960357537</v>
       </c>
       <c r="G24">
-        <v>36.19586091759023</v>
+        <v>32.84164835914801</v>
       </c>
       <c r="I24">
-        <v>4.209910373854846</v>
+        <v>4.045104240638694</v>
       </c>
       <c r="J24">
-        <v>10.52837935259955</v>
+        <v>10.25497358117688</v>
       </c>
       <c r="K24">
-        <v>14.37917502677508</v>
+        <v>12.89346828553037</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.41974119617554</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.20086678252687</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.1195417892115</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>22.18750373962287</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4441076116642</v>
+        <v>22.35381569711733</v>
       </c>
       <c r="C25">
-        <v>18.95217836999506</v>
+        <v>19.73029731756457</v>
       </c>
       <c r="D25">
-        <v>3.729287220239816</v>
+        <v>3.978829938369398</v>
       </c>
       <c r="E25">
-        <v>11.84197574515125</v>
+        <v>11.67369277747592</v>
       </c>
       <c r="F25">
-        <v>23.90522580502353</v>
+        <v>22.31637584294849</v>
       </c>
       <c r="G25">
-        <v>33.25953056252627</v>
+        <v>30.23432970142129</v>
       </c>
       <c r="I25">
-        <v>3.747351472432978</v>
+        <v>3.65112381437025</v>
       </c>
       <c r="J25">
-        <v>10.17827325002052</v>
+        <v>10.14523842298858</v>
       </c>
       <c r="K25">
-        <v>14.21253048228412</v>
+        <v>13.04109758718918</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.75610222270313</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.820837004887103</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.03303421318632</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>20.10484485876977</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
